--- a/medicine/Psychotrope/Royal_Unibrew/Royal_Unibrew.xlsx
+++ b/medicine/Psychotrope/Royal_Unibrew/Royal_Unibrew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Royal Unibrew est un groupe brassicole fondé en 1989 et situé à Faxe, au Danemark.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise est créée en 1989, sous le nom Bryggerigruppen, par la fusion de trois brasseries danoises : la brasserie Faxe, la brasserie Ceres et la brasserie Thor. Une quatrième, la brasserie Albani, les rejoint à son tour en 2000. En 2005, le groupe change de nom pour Royal Unibrew.
-En 2018, les Établissements Geyer Frères, produisant entre autres la limonade Lorina, passent sous le contrôle de Royal Unibrew, et deviennent sa filiale française[1]. 
+En 2018, les Établissements Geyer Frères, produisant entre autres la limonade Lorina, passent sous le contrôle de Royal Unibrew, et deviennent sa filiale française. 
 </t>
         </is>
       </c>
